--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7241B090-46C8-4E90-9FC0-288EB0786A73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04F86D1-21F7-4047-8560-A1958C3D06C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -419,13 +419,13 @@
     <t>10.75.58.66</t>
   </si>
   <si>
-    <t>sn414638044_3U_15I.cal</t>
-  </si>
-  <si>
     <t>IDM-E</t>
   </si>
   <si>
     <t>IDC-DAU-66</t>
+  </si>
+  <si>
+    <t>3U_13I.cal</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,13 +775,13 @@
         <v>130</v>
       </c>
       <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04F86D1-21F7-4047-8560-A1958C3D06C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72597614-78BD-4C27-8197-7B060FC99046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28740" yWindow="-60" windowWidth="25320" windowHeight="15870" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="132">
   <si>
     <t>Channel</t>
   </si>
@@ -408,12 +408,6 @@
   </si>
   <si>
     <t>DeviceName</t>
-  </si>
-  <si>
-    <t>DSP_1_Feeder_Map_3</t>
-  </si>
-  <si>
-    <t>DSP_2_Feeder_Map_3</t>
   </si>
   <si>
     <t>10.75.58.66</t>
@@ -746,7 +740,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -772,16 +766,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -791,10 +785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E08379-AB7C-402E-80C0-442430B902D3}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,41 +830,25 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9">
         <v>-1</v>
       </c>
     </row>
@@ -885,7 +863,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1210,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,8 +1941,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
